--- a/ResultHpScheudle.xlsx
+++ b/ResultHpScheudle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mypython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kik\Documents\HirePurchaseSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5309A4AB-19CB-48F3-A316-8692B491416C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D8023D-1960-4DBA-9F09-75316549EBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="14420" windowHeight="10340" xr2:uid="{7146D5C4-442F-4F93-BA2C-D51055C9CAB3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7146D5C4-442F-4F93-BA2C-D51055C9CAB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>principle</t>
   </si>
@@ -86,9 +86,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
-    <numFmt numFmtId="171" formatCode="#,##0.0000000"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -143,10 +143,10 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -155,7 +155,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,13 +472,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D73EF8-699D-4700-AB8D-2DBD3B30A6DE}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.90625" customWidth="1"/>
     <col min="2" max="2" width="9.08984375" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
     <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.90625" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" customWidth="1"/>
@@ -496,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1000000</v>
+        <v>3100000</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -511,8 +513,8 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>29166.666667000001</v>
+      <c r="C4" s="2">
+        <v>113666.666667</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -520,7 +522,8 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>0.15</v>
+        <f>2.4/100</f>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -528,8 +531,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3">
-        <f>RATE(C3,C4,C2*-1)</f>
-        <v>2.057044686523346E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -537,7 +539,8 @@
         <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>0.246845362691369</v>
+        <f>C6*12</f>
+        <v>4.5519848119254601E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -546,7 +549,7 @@
       </c>
       <c r="C8" s="3">
         <f>IRR(G12:G72)</f>
-        <v>2.057044686523346E-2</v>
+        <v>3.7933206697213784E-3</v>
       </c>
       <c r="D8" s="2"/>
     </row>
@@ -556,7 +559,7 @@
       </c>
       <c r="C9" s="3">
         <f>C8*12</f>
-        <v>0.24684536238280153</v>
+        <v>4.5519848036656541E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -593,52 +596,52 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1000000</v>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3100000</v>
       </c>
       <c r="F12">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G12">
         <f>-E12</f>
-        <v>-1000000</v>
+        <v>-3100000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
-        <v>8596.2197940863407</v>
-      </c>
-      <c r="C13" s="2">
-        <v>20570.446890947402</v>
-      </c>
-      <c r="D13" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>991403.78020599997</v>
+      <c r="B13">
+        <v>46107.372581178301</v>
+      </c>
+      <c r="C13">
+        <v>11759.2940974741</v>
+      </c>
+      <c r="D13">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E13">
+        <v>3053892.627419</v>
       </c>
       <c r="F13">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G13">
-        <f>D13</f>
-        <v>29166.666667000001</v>
+        <f t="shared" ref="G13:G44" si="0">D13</f>
+        <v>57866.666666999998</v>
       </c>
       <c r="I13" s="2">
-        <f>IPMT($C$7/12,A13,$C$3,-$C$2)</f>
-        <v>20570.446890947413</v>
+        <f t="shared" ref="I13:I44" si="1">IPMT($C$7/12,A13,$C$3,-$C$2)</f>
+        <v>11759.294097474105</v>
       </c>
       <c r="J13" s="4">
         <f>C13-I13</f>
@@ -649,191 +652,191 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="2">
-        <v>8773.0478768235007</v>
-      </c>
-      <c r="C14" s="2">
-        <v>20393.618808210202</v>
-      </c>
-      <c r="D14" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E14" s="2">
-        <v>982630.73232900002</v>
+      <c r="B14">
+        <v>46282.272630934298</v>
+      </c>
+      <c r="C14">
+        <v>11584.394047718</v>
+      </c>
+      <c r="D14">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E14">
+        <v>3007610.3547880002</v>
       </c>
       <c r="F14">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G14">
-        <f t="shared" ref="G14:G72" si="0">D14</f>
-        <v>29166.666667000001</v>
+        <f t="shared" si="0"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I14" s="2">
-        <f>IPMT($C$7/12,A14,$C$3,-$C$2)</f>
-        <v>20393.618808210249</v>
+        <f t="shared" si="1"/>
+        <v>11584.394047718011</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" ref="J14:J72" si="1">C14-I14</f>
-        <v>-4.7293724492192268E-11</v>
+        <f t="shared" ref="J14:J72" si="2">C14-I14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="2">
-        <v>8953.5133922454406</v>
-      </c>
-      <c r="C15" s="2">
-        <v>20213.153292788302</v>
-      </c>
-      <c r="D15" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E15" s="2">
-        <v>973677.21893700003</v>
+      <c r="B15">
+        <v>46457.836132665499</v>
+      </c>
+      <c r="C15">
+        <v>11408.830545986801</v>
+      </c>
+      <c r="D15">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E15">
+        <v>2961152.5186549998</v>
       </c>
       <c r="F15">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I15" s="2">
-        <f>IPMT($C$7/12,A15,$C$3,-$C$2)</f>
-        <v>20213.153292788316</v>
+        <f t="shared" si="1"/>
+        <v>11408.830545986841</v>
       </c>
       <c r="J15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-4.0017766878008842E-11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="2">
-        <v>9137.6911639680093</v>
-      </c>
-      <c r="C16" s="2">
-        <v>20028.975521065699</v>
-      </c>
-      <c r="D16" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E16" s="2">
-        <v>964539.52777299995</v>
+      <c r="B16">
+        <v>46634.065603057898</v>
+      </c>
+      <c r="C16">
+        <v>11232.601075594501</v>
+      </c>
+      <c r="D16">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E16">
+        <v>2914518.4530520001</v>
       </c>
       <c r="F16">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I16" s="2">
-        <f>IPMT($C$7/12,A16,$C$3,-$C$2)</f>
-        <v>20028.975521065746</v>
+        <f t="shared" si="1"/>
+        <v>11232.601075594495</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.7293724492192268E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="2">
-        <v>9325.6575547622906</v>
-      </c>
-      <c r="C17" s="2">
-        <v>19841.009130271399</v>
-      </c>
-      <c r="D17" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>955213.87021800003</v>
+      <c r="B17">
+        <v>46810.963568344101</v>
+      </c>
+      <c r="C17">
+        <v>11055.703110308301</v>
+      </c>
+      <c r="D17">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E17">
+        <v>2867707.489484</v>
       </c>
       <c r="F17">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I17" s="2">
-        <f>IPMT($C$7/12,A17,$C$3,-$C$2)</f>
-        <v>19841.009130271461</v>
+        <f t="shared" si="1"/>
+        <v>11055.703110308285</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="1"/>
-        <v>-6.184563972055912E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.6370904631912708E-11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
-        <v>9517.4904982156895</v>
-      </c>
-      <c r="C18" s="2">
-        <v>19649.176186818</v>
-      </c>
-      <c r="D18" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>945696.37971999997</v>
+      <c r="B18">
+        <v>46988.532564339701</v>
+      </c>
+      <c r="C18">
+        <v>10878.134114312699</v>
+      </c>
+      <c r="D18">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E18">
+        <v>2820718.9569199998</v>
       </c>
       <c r="F18">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I18" s="2">
-        <f>IPMT($C$7/12,A18,$C$3,-$C$2)</f>
-        <v>19649.176186818066</v>
+        <f t="shared" si="1"/>
+        <v>10878.134114312705</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="1"/>
-        <v>-6.5483618527650833E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
-        <v>9713.2695310443305</v>
-      </c>
-      <c r="C19" s="2">
-        <v>19453.397153989401</v>
-      </c>
-      <c r="D19" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E19" s="2">
-        <v>935983.11018900003</v>
+      <c r="B19">
+        <v>47166.7751364793</v>
+      </c>
+      <c r="C19">
+        <v>10699.8915421731</v>
+      </c>
+      <c r="D19">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E19">
+        <v>2773552.1817839998</v>
       </c>
       <c r="F19">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I19" s="2">
-        <f>IPMT($C$7/12,A19,$C$3,-$C$2)</f>
-        <v>19453.397153989423</v>
+        <f t="shared" si="1"/>
+        <v>10699.891542173087</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -841,255 +844,255 @@
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" s="2">
-        <v>9913.0758260701405</v>
-      </c>
-      <c r="C20" s="2">
-        <v>19253.590858963598</v>
-      </c>
-      <c r="D20" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E20" s="2">
-        <v>926070.03436299996</v>
+      <c r="B20">
+        <v>47345.6938398532</v>
+      </c>
+      <c r="C20">
+        <v>10520.9728387991</v>
+      </c>
+      <c r="D20">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E20">
+        <v>2726206.4879439999</v>
       </c>
       <c r="F20">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I20" s="2">
-        <f>IPMT($C$7/12,A20,$C$3,-$C$2)</f>
-        <v>19253.59085896362</v>
+        <f t="shared" si="1"/>
+        <v>10520.972838799124</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-2.3646862246096134E-11</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="2">
-        <v>10116.9922258762</v>
-      </c>
-      <c r="C21" s="2">
-        <v>19049.674459157501</v>
-      </c>
-      <c r="D21" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>915953.04213700001</v>
+      <c r="B21">
+        <v>47525.291239244099</v>
+      </c>
+      <c r="C21">
+        <v>10341.375439408201</v>
+      </c>
+      <c r="D21">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E21">
+        <v>2678681.196705</v>
       </c>
       <c r="F21">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I21" s="2">
-        <f>IPMT($C$7/12,A21,$C$3,-$C$2)</f>
-        <v>19049.674459157508</v>
+        <f t="shared" si="1"/>
+        <v>10341.375439408223</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-2.1827872842550278E-11</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="2">
-        <v>10325.1032771547</v>
-      </c>
-      <c r="C22" s="2">
-        <v>18841.563407878999</v>
-      </c>
-      <c r="D22" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E22" s="2">
-        <v>905627.93885999999</v>
+      <c r="B22">
+        <v>47705.569909163598</v>
+      </c>
+      <c r="C22">
+        <v>10161.0967694887</v>
+      </c>
+      <c r="D22">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E22">
+        <v>2630975.6267960002</v>
       </c>
       <c r="F22">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I22" s="2">
-        <f>IPMT($C$7/12,A22,$C$3,-$C$2)</f>
-        <v>18841.563407878995</v>
+        <f t="shared" si="1"/>
+        <v>10161.096769488746</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-4.5474735088646412E-11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="B23" s="2">
-        <v>10537.495265760999</v>
-      </c>
-      <c r="C23" s="2">
-        <v>18629.171419272701</v>
-      </c>
-      <c r="D23" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E23" s="2">
-        <v>895090.44359399995</v>
+      <c r="B23">
+        <v>47886.532433889297</v>
+      </c>
+      <c r="C23">
+        <v>9980.1342447631196</v>
+      </c>
+      <c r="D23">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E23">
+        <v>2583089.094362</v>
       </c>
       <c r="F23">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I23" s="2">
-        <f>IPMT($C$7/12,A23,$C$3,-$C$2)</f>
-        <v>18629.171419272738</v>
+        <f t="shared" si="1"/>
+        <v>9980.1342447631105</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.637978807091713E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" s="2">
-        <v>10754.2562524889</v>
-      </c>
-      <c r="C24" s="2">
-        <v>18412.410432544799</v>
-      </c>
-      <c r="D24" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E24" s="2">
-        <v>884336.18734199996</v>
+      <c r="B24">
+        <v>48068.181407501601</v>
+      </c>
+      <c r="C24">
+        <v>9798.4852711507592</v>
+      </c>
+      <c r="D24">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E24">
+        <v>2535020.9129539998</v>
       </c>
       <c r="F24">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I24" s="2">
-        <f>IPMT($C$7/12,A24,$C$3,-$C$2)</f>
-        <v>18412.410432544792</v>
+        <f t="shared" si="1"/>
+        <v>9798.4852711507428</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.6370904631912708E-11</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>13</v>
       </c>
-      <c r="B25" s="2">
-        <v>10975.4761095824</v>
-      </c>
-      <c r="C25" s="2">
-        <v>18191.190575451299</v>
-      </c>
-      <c r="D25" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E25" s="2">
-        <v>873360.71123200003</v>
+      <c r="B25">
+        <v>48250.519433921501</v>
+      </c>
+      <c r="C25">
+        <v>9616.1472447309006</v>
+      </c>
+      <c r="D25">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E25">
+        <v>2486770.3935199999</v>
       </c>
       <c r="F25">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I25" s="2">
-        <f>IPMT($C$7/12,A25,$C$3,-$C$2)</f>
-        <v>18191.190575451332</v>
+        <f t="shared" si="1"/>
+        <v>9616.1472447308915</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.2741809263825417E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>14</v>
       </c>
-      <c r="B26" s="2">
-        <v>11201.2465579974</v>
-      </c>
-      <c r="C26" s="2">
-        <v>17965.420127036301</v>
-      </c>
-      <c r="D26" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E26" s="2">
-        <v>862159.46467400005</v>
+      <c r="B26">
+        <v>48433.549126947102</v>
+      </c>
+      <c r="C26">
+        <v>9433.1175517053107</v>
+      </c>
+      <c r="D26">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E26">
+        <v>2438336.844393</v>
       </c>
       <c r="F26">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I26" s="2">
-        <f>IPMT($C$7/12,A26,$C$3,-$C$2)</f>
-        <v>17965.420127036305</v>
+        <f t="shared" si="1"/>
+        <v>9433.1175517052889</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.1827872842550278E-11</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>15</v>
       </c>
-      <c r="B27" s="2">
-        <v>11431.661205431101</v>
-      </c>
-      <c r="C27" s="2">
-        <v>17735.005479602602</v>
-      </c>
-      <c r="D27" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>850727.80346900003</v>
+      <c r="B27">
+        <v>48617.273110291702</v>
+      </c>
+      <c r="C27">
+        <v>9249.3935683607106</v>
+      </c>
+      <c r="D27">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E27">
+        <v>2389719.5712830001</v>
       </c>
       <c r="F27">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I27" s="2">
-        <f>IPMT($C$7/12,A27,$C$3,-$C$2)</f>
-        <v>17735.005479602612</v>
+        <f t="shared" si="1"/>
+        <v>9249.3935683606996</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1097,479 +1100,479 @@
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="B28" s="2">
-        <v>11666.815585132699</v>
-      </c>
-      <c r="C28" s="2">
-        <v>17499.851099901</v>
-      </c>
-      <c r="D28" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>839060.98788399994</v>
+      <c r="B28">
+        <v>48801.694017621099</v>
+      </c>
+      <c r="C28">
+        <v>9064.9726610313191</v>
+      </c>
+      <c r="D28">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E28">
+        <v>2340917.8772649998</v>
       </c>
       <c r="F28">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I28" s="2">
-        <f>IPMT($C$7/12,A28,$C$3,-$C$2)</f>
-        <v>17499.851099900992</v>
+        <f t="shared" si="1"/>
+        <v>9064.972661031301</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.8189894035458565E-11</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>17</v>
       </c>
-      <c r="B29" s="2">
-        <v>11906.8071955132</v>
-      </c>
-      <c r="C29" s="2">
-        <v>17259.859489520499</v>
-      </c>
-      <c r="D29" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>827154.18068800005</v>
+      <c r="B29">
+        <v>48986.814492591402</v>
+      </c>
+      <c r="C29">
+        <v>8879.8521860609508</v>
+      </c>
+      <c r="D29">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E29">
+        <v>2291931.0627720002</v>
       </c>
       <c r="F29">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I29" s="2">
-        <f>IPMT($C$7/12,A29,$C$3,-$C$2)</f>
-        <v>17259.859489520539</v>
+        <f t="shared" si="1"/>
+        <v>8879.8521860609326</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.0017766878008842E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.8189894035458565E-11</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>18</v>
       </c>
-      <c r="B30" s="2">
-        <v>12151.7355405692</v>
-      </c>
-      <c r="C30" s="2">
-        <v>17014.931144464499</v>
-      </c>
-      <c r="D30" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E30" s="2">
-        <v>815002.44514700002</v>
+      <c r="B30">
+        <v>49172.637188887202</v>
+      </c>
+      <c r="C30">
+        <v>8694.0294897652093</v>
+      </c>
+      <c r="D30">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E30">
+        <v>2242758.4255829998</v>
       </c>
       <c r="F30">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I30" s="2">
-        <f>IPMT($C$7/12,A30,$C$3,-$C$2)</f>
-        <v>17014.931144464485</v>
+        <f t="shared" si="1"/>
+        <v>8694.0294897651929</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.6370904631912708E-11</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>19</v>
       </c>
-      <c r="B31" s="2">
-        <v>12401.702171139401</v>
-      </c>
-      <c r="C31" s="2">
-        <v>16764.964513894301</v>
-      </c>
-      <c r="D31" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>802600.74297599995</v>
+      <c r="B31">
+        <v>49359.164770258998</v>
+      </c>
+      <c r="C31">
+        <v>8507.5019083934203</v>
+      </c>
+      <c r="D31">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E31">
+        <v>2193399.2608130001</v>
       </c>
       <c r="F31">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I31" s="2">
-        <f>IPMT($C$7/12,A31,$C$3,-$C$2)</f>
-        <v>16764.964513894367</v>
+        <f t="shared" si="1"/>
+        <v>8507.5019083934149</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="1"/>
-        <v>-6.5483618527650833E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>20</v>
       </c>
-      <c r="B32" s="2">
-        <v>12656.8107270081</v>
-      </c>
-      <c r="C32" s="2">
-        <v>16509.855958025601</v>
-      </c>
-      <c r="D32" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E32" s="2">
-        <v>789943.93224899995</v>
+      <c r="B32">
+        <v>49546.3999105619</v>
+      </c>
+      <c r="C32">
+        <v>8320.2667680904797</v>
+      </c>
+      <c r="D32">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E32">
+        <v>2143852.8609020002</v>
       </c>
       <c r="F32">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I32" s="2">
-        <f>IPMT($C$7/12,A32,$C$3,-$C$2)</f>
-        <v>16509.855958025601</v>
+        <f t="shared" si="1"/>
+        <v>8320.2667680904597</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.0008883439004421E-11</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>21</v>
       </c>
-      <c r="B33" s="2">
-        <v>12917.1669798768</v>
-      </c>
-      <c r="C33" s="2">
-        <v>16249.499705156901</v>
-      </c>
-      <c r="D33" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E33" s="2">
-        <v>777026.76526899997</v>
+      <c r="B33">
+        <v>49734.345293794002</v>
+      </c>
+      <c r="C33">
+        <v>8132.3213848584201</v>
+      </c>
+      <c r="D33">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E33">
+        <v>2094118.5156080001</v>
       </c>
       <c r="F33">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I33" s="2">
-        <f>IPMT($C$7/12,A33,$C$3,-$C$2)</f>
-        <v>16249.499705156906</v>
+        <f t="shared" si="1"/>
+        <v>8132.3213848584091</v>
       </c>
       <c r="J33" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.0913936421275139E-11</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>22</v>
       </c>
-      <c r="B34" s="2">
-        <v>13182.8788772179</v>
-      </c>
-      <c r="C34" s="2">
-        <v>15983.787807815799</v>
-      </c>
-      <c r="D34" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E34" s="2">
-        <v>763843.88639200001</v>
+      <c r="B34">
+        <v>49923.003614134301</v>
+      </c>
+      <c r="C34">
+        <v>7943.6630645180803</v>
+      </c>
+      <c r="D34">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E34">
+        <v>2044195.5119940001</v>
       </c>
       <c r="F34">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I34" s="2">
-        <f>IPMT($C$7/12,A34,$C$3,-$C$2)</f>
-        <v>15983.78780781585</v>
+        <f t="shared" si="1"/>
+        <v>7943.6630645180712</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.0931703299283981E-11</v>
+        <f t="shared" si="2"/>
+        <v>9.0949470177292824E-12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>23</v>
       </c>
-      <c r="B35" s="2">
-        <v>13454.0565870315</v>
-      </c>
-      <c r="C35" s="2">
-        <v>15712.6100980022</v>
-      </c>
-      <c r="D35" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E35" s="2">
-        <v>750389.82980499999</v>
+      <c r="B35">
+        <v>50112.377575981998</v>
+      </c>
+      <c r="C35">
+        <v>7754.2891026703901</v>
+      </c>
+      <c r="D35">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E35">
+        <v>1994083.134418</v>
       </c>
       <c r="F35">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I35" s="2">
-        <f>IPMT($C$7/12,A35,$C$3,-$C$2)</f>
-        <v>15712.610098002247</v>
+        <f t="shared" si="1"/>
+        <v>7754.2891026703719</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.7293724492192268E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.8189894035458565E-11</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>24</v>
       </c>
-      <c r="B36" s="2">
-        <v>13730.812543522799</v>
-      </c>
-      <c r="C36" s="2">
-        <v>15435.854141510899</v>
-      </c>
-      <c r="D36" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E36" s="2">
-        <v>736659.017261</v>
+      <c r="B36">
+        <v>50302.469893994799</v>
+      </c>
+      <c r="C36">
+        <v>7564.1967846575899</v>
+      </c>
+      <c r="D36">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E36">
+        <v>1943780.6645239999</v>
       </c>
       <c r="F36">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I36" s="2">
-        <f>IPMT($C$7/12,A36,$C$3,-$C$2)</f>
-        <v>15435.854141510916</v>
+        <f t="shared" si="1"/>
+        <v>7564.1967846575853</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.6370904631912708E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>25</v>
       </c>
-      <c r="B37" s="2">
-        <v>14013.261493718899</v>
-      </c>
-      <c r="C37" s="2">
-        <v>15153.4051913148</v>
-      </c>
-      <c r="D37" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E37" s="2">
-        <v>722645.75576700002</v>
+      <c r="B37">
+        <v>50493.283293127999</v>
+      </c>
+      <c r="C37">
+        <v>7373.3833855244302</v>
+      </c>
+      <c r="D37">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E37">
+        <v>1893287.3812309999</v>
       </c>
       <c r="F37">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I37" s="2">
-        <f>IPMT($C$7/12,A37,$C$3,-$C$2)</f>
-        <v>15153.405191314829</v>
+        <f t="shared" si="1"/>
+        <v>7373.3833855244184</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.9103830456733704E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.1823431123048067E-11</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>26</v>
       </c>
-      <c r="B38" s="2">
-        <v>14301.520545044399</v>
-      </c>
-      <c r="C38" s="2">
-        <v>14865.1461399893</v>
-      </c>
-      <c r="D38" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E38" s="2">
-        <v>708344.23522200005</v>
+      <c r="B38">
+        <v>50684.820508673401</v>
+      </c>
+      <c r="C38">
+        <v>7181.8461699789596</v>
+      </c>
+      <c r="D38">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E38">
+        <v>1842602.560722</v>
       </c>
       <c r="F38">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I38" s="2">
-        <f>IPMT($C$7/12,A38,$C$3,-$C$2)</f>
-        <v>14865.146139989323</v>
+        <f t="shared" si="1"/>
+        <v>7181.8461699789468</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.3646862246096134E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.2732925824820995E-11</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>27</v>
       </c>
-      <c r="B39" s="2">
-        <v>14595.709213876</v>
-      </c>
-      <c r="C39" s="2">
-        <v>14570.957471157701</v>
-      </c>
-      <c r="D39" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E39" s="2">
-        <v>693748.52600800002</v>
+      <c r="B39">
+        <v>50877.084286299003</v>
+      </c>
+      <c r="C39">
+        <v>6989.5823923534199</v>
+      </c>
+      <c r="D39">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E39">
+        <v>1791725.4764360001</v>
       </c>
       <c r="F39">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I39" s="2">
-        <f>IPMT($C$7/12,A39,$C$3,-$C$2)</f>
-        <v>14570.957471157695</v>
+        <f t="shared" si="1"/>
+        <v>6989.5823923534053</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1.4551915228366852E-11</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>28</v>
       </c>
-      <c r="B40" s="2">
-        <v>14895.9494750958</v>
-      </c>
-      <c r="C40" s="2">
-        <v>14270.7172099379</v>
-      </c>
-      <c r="D40" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E40" s="2">
-        <v>678852.57653299998</v>
+      <c r="B40">
+        <v>51070.077382087497</v>
+      </c>
+      <c r="C40">
+        <v>6796.58929656485</v>
+      </c>
+      <c r="D40">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E40">
+        <v>1740655.3990539999</v>
       </c>
       <c r="F40">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I40" s="2">
-        <f>IPMT($C$7/12,A40,$C$3,-$C$2)</f>
-        <v>14270.717209937948</v>
+        <f t="shared" si="1"/>
+        <v>6796.5892965648363</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.7293724492192268E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.3642420526593924E-11</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>29</v>
       </c>
-      <c r="B41" s="2">
-        <v>15202.3658126635</v>
-      </c>
-      <c r="C41" s="2">
-        <v>13964.300872370201</v>
-      </c>
-      <c r="D41" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E41" s="2">
-        <v>663650.21071999997</v>
+      <c r="B41">
+        <v>51263.802562576799</v>
+      </c>
+      <c r="C41">
+        <v>6602.8641160755797</v>
+      </c>
+      <c r="D41">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E41">
+        <v>1689391.5964909999</v>
       </c>
       <c r="F41">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I41" s="2">
-        <f>IPMT($C$7/12,A41,$C$3,-$C$2)</f>
-        <v>13964.300872370257</v>
+        <f t="shared" si="1"/>
+        <v>6602.8641160755697</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.6388671509921551E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.0004441719502211E-11</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>30</v>
       </c>
-      <c r="B42" s="2">
-        <v>15515.0852712296</v>
-      </c>
-      <c r="C42" s="2">
-        <v>13651.581413804101</v>
-      </c>
-      <c r="D42" s="2">
-        <v>29166.666667000001</v>
-      </c>
-      <c r="E42" s="2">
-        <v>648135.12544900004</v>
+      <c r="B42">
+        <v>51458.262604798801</v>
+      </c>
+      <c r="C42">
+        <v>6408.4040738535796</v>
+      </c>
+      <c r="D42">
+        <v>57866.666666999998</v>
+      </c>
+      <c r="E42">
+        <v>1637933.3338860001</v>
       </c>
       <c r="F42">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I42" s="2">
-        <f>IPMT($C$7/12,A42,$C$3,-$C$2)</f>
-        <v>13651.581413804106</v>
+        <f t="shared" si="1"/>
+        <v>6408.404073853575</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1578,31 +1581,31 @@
         <v>31</v>
       </c>
       <c r="B43">
-        <v>15834.23750881</v>
+        <v>51653.460296319703</v>
       </c>
       <c r="C43">
-        <v>13332.429176223701</v>
+        <v>6213.2063823326498</v>
       </c>
       <c r="D43">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E43">
-        <v>632300.88794000004</v>
+        <v>1586279.87359</v>
       </c>
       <c r="F43">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I43" s="2">
-        <f>IPMT($C$7/12,A43,$C$3,-$C$2)</f>
-        <v>13332.429176223759</v>
+        <f t="shared" si="1"/>
+        <v>6213.2063823326453</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.8207660913467407E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -1610,31 +1613,31 @@
         <v>32</v>
       </c>
       <c r="B44">
-        <v>16159.9548505436</v>
+        <v>51849.398435279902</v>
       </c>
       <c r="C44">
-        <v>13006.711834490099</v>
+        <v>6017.2682433724503</v>
       </c>
       <c r="D44">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E44">
-        <v>616140.93308900006</v>
+        <v>1534430.4751550001</v>
       </c>
       <c r="F44">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="I44" s="2">
-        <f>IPMT($C$7/12,A44,$C$3,-$C$2)</f>
-        <v>13006.711834490136</v>
+        <f t="shared" si="1"/>
+        <v>6017.2682433724458</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.637978807091713E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -1642,31 +1645,31 @@
         <v>33</v>
       </c>
       <c r="B45">
-        <v>16492.372343556799</v>
+        <v>52046.079830433999</v>
       </c>
       <c r="C45">
-        <v>12674.2943414769</v>
+        <v>5820.5868482183996</v>
       </c>
       <c r="D45">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E45">
-        <v>599648.56074500002</v>
+        <v>1482384.3953249999</v>
       </c>
       <c r="F45">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" ref="G45:G72" si="3">D45</f>
+        <v>57866.666666999998</v>
       </c>
       <c r="I45" s="2">
-        <f>IPMT($C$7/12,A45,$C$3,-$C$2)</f>
-        <v>12674.294341476922</v>
+        <f t="shared" ref="I45:I72" si="4">IPMT($C$7/12,A45,$C$3,-$C$2)</f>
+        <v>5820.5868482183905</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.1827872842550278E-11</v>
+        <f t="shared" si="2"/>
+        <v>9.0949470177292824E-12</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -1674,31 +1677,31 @@
         <v>34</v>
       </c>
       <c r="B46">
-        <v>16831.627812955699</v>
+        <v>52243.507301190999</v>
       </c>
       <c r="C46">
-        <v>12335.038872077999</v>
+        <v>5623.1593774614103</v>
       </c>
       <c r="D46">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E46">
-        <v>582816.93293200003</v>
+        <v>1430140.888024</v>
       </c>
       <c r="F46">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I46" s="2">
-        <f>IPMT($C$7/12,A46,$C$3,-$C$2)</f>
-        <v>12335.038872078056</v>
+        <f t="shared" si="4"/>
+        <v>5623.1593774613948</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.6388671509921551E-11</v>
+        <f t="shared" si="2"/>
+        <v>1.546140993013978E-11</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -1706,31 +1709,31 @@
         <v>35</v>
       </c>
       <c r="B47">
-        <v>17177.861918970299</v>
+        <v>52441.683677654903</v>
       </c>
       <c r="C47">
-        <v>11988.8047660634</v>
+        <v>5424.9830009974503</v>
       </c>
       <c r="D47">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E47">
-        <v>565639.07101299998</v>
+        <v>1377699.204346</v>
       </c>
       <c r="F47">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I47" s="2">
-        <f>IPMT($C$7/12,A47,$C$3,-$C$2)</f>
-        <v>11988.804766063458</v>
+        <f t="shared" si="4"/>
+        <v>5424.9830009974476</v>
       </c>
       <c r="J47" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.8207660913467407E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -1738,31 +1741,31 @@
         <v>36</v>
       </c>
       <c r="B48">
-        <v>17531.218215274501</v>
+        <v>52640.611800665298</v>
       </c>
       <c r="C48">
-        <v>11635.4484697592</v>
+        <v>5226.0548779870496</v>
       </c>
       <c r="D48">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E48">
-        <v>548107.85279799998</v>
+        <v>1325058.5925449999</v>
       </c>
       <c r="F48">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I48" s="2">
-        <f>IPMT($C$7/12,A48,$C$3,-$C$2)</f>
-        <v>11635.448469759252</v>
+        <f t="shared" si="4"/>
+        <v>5226.0548779870451</v>
       </c>
       <c r="J48" s="4">
-        <f t="shared" si="1"/>
-        <v>-5.2750692702829838E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
@@ -1770,31 +1773,31 @@
         <v>37</v>
       </c>
       <c r="B49">
-        <v>17891.843208505401</v>
+        <v>52840.294521837903</v>
       </c>
       <c r="C49">
-        <v>11274.8234765283</v>
+        <v>5026.3721568144701</v>
       </c>
       <c r="D49">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E49">
-        <v>530216.00958900002</v>
+        <v>1272218.2980229999</v>
       </c>
       <c r="F49">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I49" s="2">
-        <f>IPMT($C$7/12,A49,$C$3,-$C$2)</f>
-        <v>11274.823476528341</v>
+        <f t="shared" si="4"/>
+        <v>5026.3721568144683</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="1"/>
-        <v>-4.1836756281554699E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
@@ -1802,31 +1805,31 @@
         <v>38</v>
       </c>
       <c r="B50">
-        <v>18259.8864190071</v>
+        <v>53040.7347036055</v>
       </c>
       <c r="C50">
-        <v>10906.780266026601</v>
+        <v>4825.9319750469103</v>
       </c>
       <c r="D50">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E50">
-        <v>511956.12316999998</v>
+        <v>1219177.5633189999</v>
       </c>
       <c r="F50">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I50" s="2">
-        <f>IPMT($C$7/12,A50,$C$3,-$C$2)</f>
-        <v>10906.780266026624</v>
+        <f t="shared" si="4"/>
+        <v>4825.9319750469076</v>
       </c>
       <c r="J50" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.3646862246096134E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
@@ -1834,30 +1837,30 @@
         <v>39</v>
       </c>
       <c r="B51">
-        <v>18635.500442823999</v>
+        <v>53241.935219259001</v>
       </c>
       <c r="C51">
-        <v>10531.1662422097</v>
+        <v>4624.7314593934298</v>
       </c>
       <c r="D51">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E51">
-        <v>493320.62272699998</v>
+        <v>1165935.6281000001</v>
       </c>
       <c r="F51">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I51" s="2">
-        <f>IPMT($C$7/12,A51,$C$3,-$C$2)</f>
-        <v>10531.166242209707</v>
+        <f t="shared" si="4"/>
+        <v>4624.7314593934261</v>
       </c>
       <c r="J51" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1866,31 +1869,31 @@
         <v>40</v>
       </c>
       <c r="B52">
-        <v>19018.841014969399</v>
+        <v>53443.898952988602</v>
       </c>
       <c r="C52">
-        <v>10147.8256700643</v>
+        <v>4422.7677256637699</v>
       </c>
       <c r="D52">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E52">
-        <v>474301.78171200003</v>
+        <v>1112491.729147</v>
       </c>
       <c r="F52">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I52" s="2">
-        <f>IPMT($C$7/12,A52,$C$3,-$C$2)</f>
-        <v>10147.825670064371</v>
+        <f t="shared" si="4"/>
+        <v>4422.7677256637717</v>
       </c>
       <c r="J52" s="4">
-        <f t="shared" si="1"/>
-        <v>-7.0940586738288403E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
@@ -1898,30 +1901,30 @@
         <v>41</v>
       </c>
       <c r="B53">
-        <v>19410.0670739952</v>
+        <v>53646.628799925304</v>
       </c>
       <c r="C53">
-        <v>9756.5996110385695</v>
+        <v>4220.0378787270402</v>
       </c>
       <c r="D53">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E53">
-        <v>454891.714638</v>
+        <v>1058845.1003469999</v>
       </c>
       <c r="F53">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I53" s="2">
-        <f>IPMT($C$7/12,A53,$C$3,-$C$2)</f>
-        <v>9756.5996110385677</v>
+        <f t="shared" si="4"/>
+        <v>4220.0378787270365</v>
       </c>
       <c r="J53" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1930,30 +1933,30 @@
         <v>42</v>
       </c>
       <c r="B54">
-        <v>19809.340827890501</v>
+        <v>53850.127666182198</v>
       </c>
       <c r="C54">
-        <v>9357.3258571432307</v>
+        <v>4016.5390124701498</v>
       </c>
       <c r="D54">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E54">
-        <v>435082.37381000002</v>
+        <v>1004994.972681</v>
       </c>
       <c r="F54">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I54" s="2">
-        <f>IPMT($C$7/12,A54,$C$3,-$C$2)</f>
-        <v>9357.325857143227</v>
+        <f t="shared" si="4"/>
+        <v>4016.5390124701516</v>
       </c>
       <c r="J54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1962,30 +1965,30 @@
         <v>43</v>
       </c>
       <c r="B55">
-        <v>20216.827821335301</v>
+        <v>54054.398468896099</v>
       </c>
       <c r="C55">
-        <v>8949.8388636984291</v>
+        <v>3812.2682097562301</v>
       </c>
       <c r="D55">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E55">
-        <v>414865.54598900001</v>
+        <v>950940.57421200001</v>
       </c>
       <c r="F55">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I55" s="2">
-        <f>IPMT($C$7/12,A55,$C$3,-$C$2)</f>
-        <v>8949.8388636984309</v>
+        <f t="shared" si="4"/>
+        <v>3812.2682097562283</v>
       </c>
       <c r="J55" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1994,31 +1997,31 @@
         <v>44</v>
       </c>
       <c r="B56">
-        <v>20632.6970043375</v>
+        <v>54259.444136269602</v>
       </c>
       <c r="C56">
-        <v>8533.9696806962202</v>
+        <v>3607.2225423827399</v>
       </c>
       <c r="D56">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E56">
-        <v>394232.84898499999</v>
+        <v>896681.130076</v>
       </c>
       <c r="F56">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I56" s="2">
-        <f>IPMT($C$7/12,A56,$C$3,-$C$2)</f>
-        <v>8533.969680696222</v>
+        <f t="shared" si="4"/>
+        <v>3607.2225423827445</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-4.5474735088646412E-12</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
@@ -2026,31 +2029,31 @@
         <v>45</v>
       </c>
       <c r="B57">
-        <v>21057.120802282199</v>
+        <v>54465.267607612797</v>
       </c>
       <c r="C57">
-        <v>8109.5458827514904</v>
+        <v>3401.3990710395601</v>
       </c>
       <c r="D57">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E57">
-        <v>373175.728183</v>
+        <v>842215.86246800004</v>
       </c>
       <c r="F57">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I57" s="2">
-        <f>IPMT($C$7/12,A57,$C$3,-$C$2)</f>
-        <v>8109.5458827514894</v>
+        <f t="shared" si="4"/>
+        <v>3401.3990710395638</v>
       </c>
       <c r="J57" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-3.637978807091713E-12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -2058,31 +2061,31 @@
         <v>46</v>
       </c>
       <c r="B58">
-        <v>21490.275187421801</v>
+        <v>54671.871833385601</v>
       </c>
       <c r="C58">
-        <v>7676.3914976118904</v>
+        <v>3194.7948452668102</v>
       </c>
       <c r="D58">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E58">
-        <v>351685.45299600001</v>
+        <v>787543.99063500005</v>
       </c>
       <c r="F58">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I58" s="2">
-        <f>IPMT($C$7/12,A58,$C$3,-$C$2)</f>
-        <v>7676.3914976118795</v>
+        <f t="shared" si="4"/>
+        <v>3194.794845266807</v>
       </c>
       <c r="J58" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0913936421275139E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
@@ -2090,31 +2093,31 @@
         <v>47</v>
       </c>
       <c r="B59">
-        <v>21932.339751836502</v>
+        <v>54879.2597752398</v>
       </c>
       <c r="C59">
-        <v>7234.3269331971896</v>
+        <v>2987.40690341256</v>
       </c>
       <c r="D59">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E59">
-        <v>329753.11324400001</v>
+        <v>732664.73086000001</v>
       </c>
       <c r="F59">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I59" s="2">
-        <f>IPMT($C$7/12,A59,$C$3,-$C$2)</f>
-        <v>7234.3269331971742</v>
+        <f t="shared" si="4"/>
+        <v>2987.4069034125523</v>
       </c>
       <c r="J59" s="4">
-        <f t="shared" si="1"/>
-        <v>1.546140993013978E-11</v>
+        <f t="shared" si="2"/>
+        <v>7.73070496506989E-12</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -2122,31 +2125,31 @@
         <v>48</v>
       </c>
       <c r="B60">
-        <v>22383.497781895901</v>
+        <v>55087.434406061999</v>
       </c>
       <c r="C60">
-        <v>6783.1689031378201</v>
+        <v>2779.23227259038</v>
       </c>
       <c r="D60">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E60">
-        <v>307369.61546200002</v>
+        <v>677577.29645400005</v>
       </c>
       <c r="F60">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I60" s="2">
-        <f>IPMT($C$7/12,A60,$C$3,-$C$2)</f>
-        <v>6783.1689031378082</v>
+        <f t="shared" si="4"/>
+        <v>2779.2322725903832</v>
       </c>
       <c r="J60" s="4">
-        <f t="shared" si="1"/>
-        <v>1.1823431123048067E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -2154,31 +2157,31 @@
         <v>49</v>
       </c>
       <c r="B61">
-        <v>22843.936334252001</v>
+        <v>55296.398710015601</v>
       </c>
       <c r="C61">
-        <v>6322.7303507816896</v>
+        <v>2570.2679686367701</v>
       </c>
       <c r="D61">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E61">
-        <v>284525.67912799999</v>
+        <v>622280.89774399996</v>
       </c>
       <c r="F61">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I61" s="2">
-        <f>IPMT($C$7/12,A61,$C$3,-$C$2)</f>
-        <v>6322.7303507816787</v>
+        <f t="shared" si="4"/>
+        <v>2570.2679686367724</v>
       </c>
       <c r="J61" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0913936421275139E-11</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
@@ -2186,30 +2189,30 @@
         <v>50</v>
       </c>
       <c r="B62">
-        <v>23313.846313395999</v>
+        <v>55506.155682584103</v>
       </c>
       <c r="C62">
-        <v>5852.8203716377702</v>
+        <v>2360.5109960682998</v>
       </c>
       <c r="D62">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E62">
-        <v>261211.832815</v>
+        <v>566774.74206099997</v>
       </c>
       <c r="F62">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I62" s="2">
-        <f>IPMT($C$7/12,A62,$C$3,-$C$2)</f>
-        <v>5852.8203716377639</v>
+        <f t="shared" si="4"/>
+        <v>2360.5109960683026</v>
       </c>
       <c r="J62" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2218,31 +2221,31 @@
         <v>51</v>
       </c>
       <c r="B63">
-        <v>23793.422550809399</v>
+        <v>55716.708330613699</v>
       </c>
       <c r="C63">
-        <v>5373.2441342243401</v>
+        <v>2149.95834803872</v>
       </c>
       <c r="D63">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E63">
-        <v>237418.41026400001</v>
+        <v>511058.03373000002</v>
       </c>
       <c r="F63">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I63" s="2">
-        <f>IPMT($C$7/12,A63,$C$3,-$C$2)</f>
-        <v>5373.2441342243419</v>
+        <f t="shared" si="4"/>
+        <v>2149.9583480387259</v>
       </c>
       <c r="J63" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-5.9117155615240335E-12</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
@@ -2250,31 +2253,31 @@
         <v>52</v>
       </c>
       <c r="B64">
-        <v>24282.8638857447</v>
+        <v>55928.059672356503</v>
       </c>
       <c r="C64">
-        <v>4883.8027992890502</v>
+        <v>1938.6070062958599</v>
       </c>
       <c r="D64">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E64">
-        <v>213135.546378</v>
+        <v>455129.97405800002</v>
       </c>
       <c r="F64">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I64" s="2">
-        <f>IPMT($C$7/12,A64,$C$3,-$C$2)</f>
-        <v>4883.8027992890475</v>
+        <f t="shared" si="4"/>
+        <v>1938.6070062958647</v>
       </c>
       <c r="J64" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>-4.7748471843078732E-12</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
@@ -2282,31 +2285,31 @@
         <v>53</v>
       </c>
       <c r="B65">
-        <v>24782.373247666499</v>
+        <v>56140.212737513997</v>
       </c>
       <c r="C65">
-        <v>4384.2934373672397</v>
+        <v>1726.45394113834</v>
       </c>
       <c r="D65">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E65">
-        <v>188353.17313000001</v>
+        <v>398989.76131999999</v>
       </c>
       <c r="F65">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I65" s="2">
-        <f>IPMT($C$7/12,A65,$C$3,-$C$2)</f>
-        <v>4384.2934373672324</v>
+        <f t="shared" si="4"/>
+        <v>1726.4539411383428</v>
       </c>
       <c r="J65" s="4">
-        <f t="shared" si="1"/>
-        <v>7.2759576141834259E-12</v>
+        <f t="shared" si="2"/>
+        <v>-2.7284841053187847E-12</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
@@ -2314,31 +2317,31 @@
         <v>54</v>
       </c>
       <c r="B66">
-        <v>25292.157740389299</v>
+        <v>56353.170567280198</v>
       </c>
       <c r="C66">
-        <v>3874.5089446444799</v>
+        <v>1513.4961113721499</v>
       </c>
       <c r="D66">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E66">
-        <v>163061.01538999999</v>
+        <v>342636.590753</v>
       </c>
       <c r="F66">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I66" s="2">
-        <f>IPMT($C$7/12,A66,$C$3,-$C$2)</f>
-        <v>3874.5089446444736</v>
+        <f t="shared" si="4"/>
+        <v>1513.4961113721533</v>
       </c>
       <c r="J66" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3664629124104977E-12</v>
+        <f t="shared" si="2"/>
+        <v>-3.4106051316484809E-12</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
@@ -2346,31 +2349,31 @@
         <v>55</v>
       </c>
       <c r="B67">
-        <v>25812.4287279454</v>
+        <v>56566.9362143853</v>
       </c>
       <c r="C67">
-        <v>3354.23795708834</v>
+        <v>1299.7304642670599</v>
       </c>
       <c r="D67">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E67">
-        <v>137248.58666199999</v>
+        <v>286069.65453900001</v>
       </c>
       <c r="F67">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I67" s="2">
-        <f>IPMT($C$7/12,A67,$C$3,-$C$2)</f>
-        <v>3354.2379570883327</v>
+        <f t="shared" si="4"/>
+        <v>1299.7304642670672</v>
       </c>
       <c r="J67" s="4">
-        <f t="shared" si="1"/>
-        <v>7.2759576141834259E-12</v>
+        <f t="shared" si="2"/>
+        <v>-7.2759576141834259E-12</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
@@ -2378,31 +2381,31 @@
         <v>56</v>
       </c>
       <c r="B68">
-        <v>26343.40192222</v>
+        <v>56781.512743139501</v>
       </c>
       <c r="C68">
-        <v>2823.2647628137602</v>
+        <v>1085.15393551286</v>
       </c>
       <c r="D68">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E68">
-        <v>110905.18474</v>
+        <v>229288.14179600001</v>
       </c>
       <c r="F68">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I68" s="2">
-        <f>IPMT($C$7/12,A68,$C$3,-$C$2)</f>
-        <v>2823.2647628137665</v>
+        <f t="shared" si="4"/>
+        <v>1085.1539355128693</v>
       </c>
       <c r="J68" s="4">
-        <f t="shared" si="1"/>
-        <v>-6.3664629124104977E-12</v>
+        <f t="shared" si="2"/>
+        <v>-9.3223206931725144E-12</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
@@ -2410,30 +2413,30 @@
         <v>57</v>
       </c>
       <c r="B69">
-        <v>26885.297472387902</v>
+        <v>56996.903229476899</v>
       </c>
       <c r="C69">
-        <v>2281.36921264586</v>
+        <v>869.76344917543395</v>
       </c>
       <c r="D69">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E69">
-        <v>84019.887268000006</v>
+        <v>172291.23856699999</v>
       </c>
       <c r="F69">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I69" s="2">
-        <f>IPMT($C$7/12,A69,$C$3,-$C$2)</f>
-        <v>2281.3692126458595</v>
+        <f t="shared" si="4"/>
+        <v>869.76344917543452</v>
       </c>
       <c r="J69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2442,31 +2445,31 @@
         <v>58</v>
       </c>
       <c r="B70">
-        <v>27438.3400561909</v>
+        <v>57213.1107609998</v>
       </c>
       <c r="C70">
-        <v>1728.3266288427801</v>
+        <v>653.555917652625</v>
       </c>
       <c r="D70">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E70">
-        <v>56581.547211999998</v>
+        <v>115078.127806</v>
       </c>
       <c r="F70">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I70" s="2">
-        <f>IPMT($C$7/12,A70,$C$3,-$C$2)</f>
-        <v>1728.3266288427833</v>
+        <f t="shared" si="4"/>
+        <v>653.55591765263171</v>
       </c>
       <c r="J70" s="4">
-        <f t="shared" si="1"/>
-        <v>-3.1832314562052488E-12</v>
+        <f t="shared" si="2"/>
+        <v>-6.7075234255753458E-12</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
@@ -2474,31 +2477,31 @@
         <v>59</v>
       </c>
       <c r="B71">
-        <v>28002.758973092601</v>
+        <v>57430.138437022302</v>
       </c>
       <c r="C71">
-        <v>1163.90771194116</v>
+        <v>436.528241630065</v>
       </c>
       <c r="D71">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E71">
-        <v>28578.788239000001</v>
+        <v>57647.989369000003</v>
       </c>
       <c r="F71">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I71" s="2">
-        <f>IPMT($C$7/12,A71,$C$3,-$C$2)</f>
-        <v>1163.9077119411529</v>
+        <f t="shared" si="4"/>
+        <v>436.52824163006602</v>
       </c>
       <c r="J71" s="4">
-        <f t="shared" si="1"/>
-        <v>7.0485839387401938E-12</v>
+        <f t="shared" si="2"/>
+        <v>-1.0231815394945443E-12</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
@@ -2506,31 +2509,31 @@
         <v>60</v>
       </c>
       <c r="B72">
-        <v>28578.7882393486</v>
+        <v>57647.989368615701</v>
       </c>
       <c r="C72">
-        <v>587.87844568515504</v>
+        <v>218.67731003663999</v>
       </c>
       <c r="D72">
-        <v>29166.666667000001</v>
+        <v>57866.666666999998</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>2.0570446890947398E-2</v>
+        <v>3.7933206766045499E-3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="0"/>
-        <v>29166.666667000001</v>
+        <f t="shared" si="3"/>
+        <v>57866.666666999998</v>
       </c>
       <c r="I72" s="2">
-        <f>IPMT($C$7/12,A72,$C$3,-$C$2)</f>
-        <v>587.87844568515175</v>
+        <f t="shared" si="4"/>
+        <v>218.67731003664849</v>
       </c>
       <c r="J72" s="4">
-        <f t="shared" si="1"/>
-        <v>3.2969182939268649E-12</v>
+        <f t="shared" si="2"/>
+        <v>-8.4980911196907982E-12</v>
       </c>
     </row>
   </sheetData>
